--- a/docs/画面項目定義書/mo_security_group_create.xlsx
+++ b/docs/画面項目定義書/mo_security_group_create.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E7AD4-98DA-491B-8ADC-9993931D0BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F118D73-DEEE-4226-BCD3-2F99CD91867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>日本工学院</t>
   </si>
@@ -71,52 +82,6 @@
   </si>
   <si>
     <t>イメージダッシュボードへ遷移</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>メモリ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vCPU</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプ名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -141,13 +106,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ルールを追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧タイトル「セキュリティグループ名」</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクラン</t>
@@ -313,27 +271,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ルール名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ポート番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ソース（例：0.0.0.0/0）</t>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ルール設定クリア用×ボタン</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
@@ -408,15 +345,47 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ルール設定で入力したルールが確定される</t>
+    <t>セキュリティグループ名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ルール設定</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ルールを追加</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ルール設定で入力したルールが確定され、
+行を追加する</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>カクテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -723,7 +692,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,24 +785,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1286,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1339,10 +1302,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1352,10 +1315,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="37"/>
+      <c r="A6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="39"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1406,28 +1369,28 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="26">
       <c r="A10" s="24">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" t="s">
-        <v>50</v>
+      <c r="G10" s="40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -1435,16 +1398,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1452,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>12</v>
@@ -1471,46 +1434,44 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="26">
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" s="33"/>
-      <c r="G14" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -1520,31 +1481,29 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G17" s="34"/>
     </row>
@@ -1553,15 +1512,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="E18" s="28"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
     </row>
@@ -1570,15 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
     </row>
@@ -1587,15 +1542,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="E20" s="28"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
     </row>
@@ -1604,35 +1557,35 @@
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24">
       <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="37" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13">
@@ -1640,10 +1593,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28" t="s">
@@ -1651,7 +1604,7 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13">

--- a/docs/画面項目定義書/mo_security_group_create.xlsx
+++ b/docs/画面項目定義書/mo_security_group_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F118D73-DEEE-4226-BCD3-2F99CD91867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667655E7-BFEA-4896-930F-B248FDA7BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>日本工学院</t>
   </si>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージダッシュボードへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -99,102 +95,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>追加ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「セキュリティグループ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「セキュリティグループ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「説明」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「説明」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「ルール設定」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「ルール名」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「ポート番号」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「ソース」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>作成ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -227,35 +127,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ルール設定内可否選択プルダウン</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ルール設定用プロトコル選択プルダウン</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>プルダウンメニュー</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -271,61 +142,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ルール設定クリア用×ボタン</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ルール設定の項目を削除</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>許可・拒否を切り替え可能</t>
-    <rPh sb="0" eb="2">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョヒ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>TCP・UDP・ICMPを切り替え可能</t>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力した情報を確定し、セキュリティグループが完成/セキュリティグループダッシュボードへ遷移</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -356,17 +172,6 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ルール設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ルールを追加</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -387,6 +192,152 @@
     <rPh sb="22" eb="24">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>利用者サイドバー</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループ詳細編集</t>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「セキュリティグループ名」</t>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「セキュリティグループ名」</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「説明」</t>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「説明」</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルールタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「ルール名」</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「ポート番号」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「プロトコル」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「送信元IP」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「許可/拒否」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルールタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「ルール名」</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「ポート番号」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「プロトコル」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「送信元IP」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「許可/拒否」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール：追加ボタン</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール：追加ボタン</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ルールを追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループダッシュボードへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -397,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +409,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,8 +442,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -685,6 +649,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,7 +667,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,30 +748,42 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,87 +974,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2979720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>237240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391080" y="6808320"/>
-          <a:ext cx="6140880" cy="237240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="Verdana"/>
-            </a:rPr>
-            <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Noto Serif CJK JP"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1247,20 +1153,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" customWidth="1"/>
     <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
@@ -1302,10 +1208,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1315,10 +1221,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="39"/>
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="37"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1369,109 +1275,111 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="26">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="24">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24">
+      <c r="G10" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+    </row>
+    <row r="12" spans="1:7" ht="26">
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="24">
+      <c r="G13" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="G14" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -1481,181 +1389,248 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+    </row>
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="24">
       <c r="A18" s="24">
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="24">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="24">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>25</v>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="24">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="24">
       <c r="A22" s="24">
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13">
+        <v>14</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="21">
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
-        <v>13</v>
+      <c r="E23" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13">
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="24">
         <v>16</v>
       </c>
+      <c r="B24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="B25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
+      <c r="A26" s="21">
+        <v>18</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
+      <c r="A27" s="24">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="42"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
+    <row r="28" spans="1:7" ht="24">
+      <c r="A28" s="21">
+        <v>20</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="42"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A29" s="21">
+        <v>21</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="28" customHeight="1">
+      <c r="A30" s="24">
+        <v>22</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A31" s="44">
+        <v>23</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="27" customHeight="1"/>
+    <row r="33" spans="1:7" ht="30" customHeight="1"/>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
